--- a/BasicInformationJapan/CalcResult.xlsx
+++ b/BasicInformationJapan/CalcResult.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\EngineeringChallenge\BasicInformationJapan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE121DE-1A78-4FDD-9E34-38AC45E991DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC649E6-7D91-4954-BEE6-6E950BFB103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="3225" windowWidth="21810" windowHeight="11265" xr2:uid="{15A366A7-99A1-4BAD-B238-9C028C2F4D2C}"/>
+    <workbookView xWindow="3060" yWindow="3615" windowWidth="11385" windowHeight="11265" activeTab="1" xr2:uid="{15A366A7-99A1-4BAD-B238-9C028C2F4D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="令和元年_基本情報_午前問題" sheetId="1" r:id="rId1"/>
+    <sheet name="令和元年_基本情報_午後問題" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="22">
   <si>
     <t>問題番号</t>
     <rPh sb="0" eb="4">
@@ -95,6 +96,74 @@
   </si>
   <si>
     <t>イ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正答率</t>
+    <rPh sb="0" eb="3">
+      <t>セイトウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問１</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大問題</t>
+    <rPh sb="0" eb="3">
+      <t>ダイモンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設問</t>
+    <rPh sb="0" eb="2">
+      <t>セツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問２</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -461,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1474DC7-4ED2-4E38-A680-BA1142DBDB5C}">
   <dimension ref="A2:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:A82"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1393,4 +1462,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243F4ED3-E6C4-4727-91C0-AF1AA7FD4CED}">
+  <dimension ref="A2:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>